--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>64.36758214438257</v>
+        <v>1174.680072009792</v>
       </c>
       <c r="R2">
-        <v>64.36758214438257</v>
+        <v>10572.12064808813</v>
       </c>
       <c r="S2">
-        <v>0.04241086443832925</v>
+        <v>0.2599473511804268</v>
       </c>
       <c r="T2">
-        <v>0.04241086443832925</v>
+        <v>0.2599473511804268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>187.2073036115675</v>
+        <v>1180.183185159916</v>
       </c>
       <c r="R3">
-        <v>187.2073036115675</v>
+        <v>10621.64866643924</v>
       </c>
       <c r="S3">
-        <v>0.1233481717167193</v>
+        <v>0.2611651463237235</v>
       </c>
       <c r="T3">
-        <v>0.1233481717167193</v>
+        <v>0.2611651463237235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>8.304055636064845</v>
+        <v>56.672138994439</v>
       </c>
       <c r="R4">
-        <v>8.304055636064845</v>
+        <v>510.049250949951</v>
       </c>
       <c r="S4">
-        <v>0.005471421578015968</v>
+        <v>0.01254109333116412</v>
       </c>
       <c r="T4">
-        <v>0.005471421578015968</v>
+        <v>0.01254109333116412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>202.1256558839011</v>
+        <v>595.57001467968</v>
       </c>
       <c r="R5">
-        <v>202.1256558839011</v>
+        <v>5360.13013211712</v>
       </c>
       <c r="S5">
-        <v>0.1331776572245946</v>
+        <v>0.1317949043722095</v>
       </c>
       <c r="T5">
-        <v>0.1331776572245946</v>
+        <v>0.1317949043722095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>587.8642286713109</v>
+        <v>598.3601268623066</v>
       </c>
       <c r="R6">
-        <v>587.8642286713109</v>
+        <v>5385.24114176076</v>
       </c>
       <c r="S6">
-        <v>0.3873351970002152</v>
+        <v>0.132412333992965</v>
       </c>
       <c r="T6">
-        <v>0.3873351970002152</v>
+        <v>0.132412333992965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>26.07621159625139</v>
+        <v>28.73312270897667</v>
       </c>
       <c r="R7">
-        <v>26.07621159625139</v>
+        <v>258.59810438079</v>
       </c>
       <c r="S7">
-        <v>0.01718123686226299</v>
+        <v>0.006358411381374309</v>
       </c>
       <c r="T7">
-        <v>0.01718123686226299</v>
+        <v>0.006358411381374309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H8">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>109.4187521430373</v>
+        <v>430.95326354208</v>
       </c>
       <c r="R8">
-        <v>109.4187521430373</v>
+        <v>3878.579371878719</v>
       </c>
       <c r="S8">
-        <v>0.07209442563401444</v>
+        <v>0.09536652745683957</v>
       </c>
       <c r="T8">
-        <v>0.07209442563401444</v>
+        <v>0.09536652745683956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H9">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>318.2345657677948</v>
+        <v>432.9721831000066</v>
       </c>
       <c r="R9">
-        <v>318.2345657677948</v>
+        <v>3896.74964790006</v>
       </c>
       <c r="S9">
-        <v>0.2096801305678123</v>
+        <v>0.09581329828732746</v>
       </c>
       <c r="T9">
-        <v>0.2096801305678123</v>
+        <v>0.09581329828732744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H10">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>14.11610278270904</v>
+        <v>20.79122974290167</v>
       </c>
       <c r="R10">
-        <v>14.11610278270904</v>
+        <v>187.121067686115</v>
       </c>
       <c r="S10">
-        <v>0.009300894978035813</v>
+        <v>0.004600933673969692</v>
       </c>
       <c r="T10">
-        <v>0.009300894978035813</v>
+        <v>0.004600933673969691</v>
       </c>
     </row>
   </sheetData>
